--- a/2022/Price List/Symphony Price List 01.04.2022.xlsx
+++ b/2022/Price List/Symphony Price List 01.04.2022.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="120">
   <si>
     <t xml:space="preserve">SL </t>
   </si>
@@ -319,9 +319,6 @@
     <t>D76</t>
   </si>
   <si>
-    <t>ATOMII</t>
-  </si>
-  <si>
     <t>5.00"</t>
   </si>
   <si>
@@ -352,22 +349,31 @@
     <t>Z25</t>
   </si>
   <si>
-    <t>Z353GB</t>
-  </si>
-  <si>
-    <t>Z354GB</t>
-  </si>
-  <si>
-    <t>Z403GB</t>
-  </si>
-  <si>
     <t>SMARTPHONE</t>
   </si>
   <si>
-    <t xml:space="preserve"> Price List of Symphony Mobile (01.04.2022)</t>
-  </si>
-  <si>
     <t>Z42</t>
+  </si>
+  <si>
+    <t>Z35 (3GB)</t>
+  </si>
+  <si>
+    <t>Z35 (4GB)</t>
+  </si>
+  <si>
+    <t>Z40 (3GB)</t>
+  </si>
+  <si>
+    <t>13MP+0.8MP+0.8MP+8MP</t>
+  </si>
+  <si>
+    <t>ATOM II</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Price List of Symphony Mobile (11.04.2022)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -450,7 +456,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -469,6 +475,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="25">
     <border>
@@ -795,7 +807,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -878,7 +890,103 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="13" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -929,39 +1037,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -969,30 +1044,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="13" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1024,7 +1075,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>331136</xdr:colOff>
+      <xdr:colOff>287299</xdr:colOff>
       <xdr:row>57</xdr:row>
       <xdr:rowOff>260052</xdr:rowOff>
     </xdr:to>
@@ -1044,9 +1095,9 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="341883" y="11382375"/>
-          <a:ext cx="5085128" cy="260052"/>
+          <a:ext cx="5041291" cy="260052"/>
           <a:chOff x="253" y="249"/>
-          <a:chExt cx="232" cy="258"/>
+          <a:chExt cx="230" cy="258"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -1271,7 +1322,7 @@
         <xdr:spPr bwMode="auto">
           <a:xfrm>
             <a:off x="476" y="311"/>
-            <a:ext cx="9" cy="162"/>
+            <a:ext cx="7" cy="184"/>
           </a:xfrm>
           <a:custGeom>
             <a:avLst/>
@@ -3333,10 +3384,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J59"/>
+  <dimension ref="A1:N59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="N56" sqref="N56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3355,46 +3406,46 @@
   <sheetData>
     <row r="1" spans="1:10" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6"/>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="29"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="61"/>
     </row>
     <row r="2" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31" t="s">
+      <c r="A2" s="62"/>
+      <c r="B2" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="29"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="61"/>
     </row>
     <row r="3" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="30"/>
-      <c r="B3" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="29"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="66" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="61"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="30"/>
+      <c r="A4" s="62"/>
       <c r="B4" s="24" t="s">
         <v>0</v>
       </c>
@@ -3419,17 +3470,17 @@
       <c r="I4" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="29"/>
+      <c r="J4" s="61"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
+      <c r="A5" s="62"/>
       <c r="B5" s="18">
         <v>1</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="46">
+      <c r="D5" s="29">
         <v>960</v>
       </c>
       <c r="E5" s="23">
@@ -3447,17 +3498,17 @@
       <c r="I5" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="29"/>
+      <c r="J5" s="61"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
+      <c r="A6" s="62"/>
       <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="48">
+      <c r="D6" s="31">
         <v>960</v>
       </c>
       <c r="E6" s="13">
@@ -3475,17 +3526,17 @@
       <c r="I6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="29"/>
+      <c r="J6" s="61"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
+      <c r="A7" s="62"/>
       <c r="B7" s="1">
         <v>3</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="48">
+      <c r="D7" s="31">
         <v>970</v>
       </c>
       <c r="E7" s="13">
@@ -3503,17 +3554,17 @@
       <c r="I7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="29"/>
+      <c r="J7" s="61"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
+      <c r="A8" s="62"/>
       <c r="B8" s="1">
         <v>4</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="49">
+      <c r="D8" s="32">
         <v>980</v>
       </c>
       <c r="E8" s="13">
@@ -3531,17 +3582,17 @@
       <c r="I8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="29"/>
+      <c r="J8" s="61"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="30"/>
+      <c r="A9" s="62"/>
       <c r="B9" s="1">
         <v>5</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="49">
+      <c r="D9" s="32">
         <v>1100</v>
       </c>
       <c r="E9" s="13">
@@ -3559,17 +3610,17 @@
       <c r="I9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="29"/>
+      <c r="J9" s="61"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
+      <c r="A10" s="62"/>
       <c r="B10" s="1">
         <v>6</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="49">
+      <c r="D10" s="32">
         <v>1100</v>
       </c>
       <c r="E10" s="13">
@@ -3587,17 +3638,17 @@
       <c r="I10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="29"/>
+      <c r="J10" s="61"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
+      <c r="A11" s="62"/>
       <c r="B11" s="1">
         <v>7</v>
       </c>
-      <c r="C11" s="47" t="s">
+      <c r="C11" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="48">
+      <c r="D11" s="31">
         <v>1060</v>
       </c>
       <c r="E11" s="13">
@@ -3615,17 +3666,17 @@
       <c r="I11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="29"/>
+      <c r="J11" s="61"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
+      <c r="A12" s="62"/>
       <c r="B12" s="1">
         <v>8</v>
       </c>
-      <c r="C12" s="47" t="s">
+      <c r="C12" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="48">
+      <c r="D12" s="31">
         <v>1200</v>
       </c>
       <c r="E12" s="13">
@@ -3643,17 +3694,17 @@
       <c r="I12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="29"/>
+      <c r="J12" s="61"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="30"/>
+      <c r="A13" s="62"/>
       <c r="B13" s="1">
         <v>9</v>
       </c>
-      <c r="C13" s="47" t="s">
+      <c r="C13" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="48">
+      <c r="D13" s="31">
         <v>1200</v>
       </c>
       <c r="E13" s="13">
@@ -3671,17 +3722,17 @@
       <c r="I13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="29"/>
+      <c r="J13" s="61"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="30"/>
+      <c r="A14" s="62"/>
       <c r="B14" s="1">
         <v>10</v>
       </c>
-      <c r="C14" s="47" t="s">
+      <c r="C14" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="48">
+      <c r="D14" s="31">
         <v>1250</v>
       </c>
       <c r="E14" s="13">
@@ -3699,17 +3750,17 @@
       <c r="I14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="29"/>
+      <c r="J14" s="61"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
+      <c r="A15" s="62"/>
       <c r="B15" s="1">
         <v>11</v>
       </c>
-      <c r="C15" s="47" t="s">
+      <c r="C15" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="D15" s="48">
+      <c r="D15" s="31">
         <v>1460</v>
       </c>
       <c r="E15" s="13">
@@ -3727,17 +3778,17 @@
       <c r="I15" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J15" s="29"/>
+      <c r="J15" s="61"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
+      <c r="A16" s="62"/>
       <c r="B16" s="1">
         <v>12</v>
       </c>
-      <c r="C16" s="47" t="s">
+      <c r="C16" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="D16" s="48">
+      <c r="D16" s="31">
         <v>1130</v>
       </c>
       <c r="E16" s="13">
@@ -3755,17 +3806,17 @@
       <c r="I16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="29"/>
+      <c r="J16" s="61"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="30"/>
+      <c r="A17" s="62"/>
       <c r="B17" s="1">
         <v>13</v>
       </c>
-      <c r="C17" s="47" t="s">
+      <c r="C17" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="D17" s="48">
+      <c r="D17" s="31">
         <v>1190</v>
       </c>
       <c r="E17" s="13">
@@ -3783,17 +3834,17 @@
       <c r="I17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J17" s="29"/>
+      <c r="J17" s="61"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="30"/>
+      <c r="A18" s="62"/>
       <c r="B18" s="1">
         <v>14</v>
       </c>
-      <c r="C18" s="47" t="s">
+      <c r="C18" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="D18" s="48">
+      <c r="D18" s="31">
         <v>1200</v>
       </c>
       <c r="E18" s="13">
@@ -3811,17 +3862,17 @@
       <c r="I18" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="29"/>
+      <c r="J18" s="61"/>
     </row>
     <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="30"/>
+      <c r="A19" s="62"/>
       <c r="B19" s="1">
         <v>15</v>
       </c>
-      <c r="C19" s="47" t="s">
+      <c r="C19" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="48">
+      <c r="D19" s="31">
         <v>1140</v>
       </c>
       <c r="E19" s="13">
@@ -3839,17 +3890,17 @@
       <c r="I19" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J19" s="29"/>
+      <c r="J19" s="61"/>
     </row>
     <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="30"/>
+      <c r="A20" s="62"/>
       <c r="B20" s="1">
         <v>17</v>
       </c>
-      <c r="C20" s="47" t="s">
+      <c r="C20" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="D20" s="48">
+      <c r="D20" s="31">
         <v>1300</v>
       </c>
       <c r="E20" s="13">
@@ -3867,17 +3918,17 @@
       <c r="I20" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J20" s="29"/>
+      <c r="J20" s="61"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="30"/>
+      <c r="A21" s="62"/>
       <c r="B21" s="1">
         <v>18</v>
       </c>
-      <c r="C21" s="47" t="s">
+      <c r="C21" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="48">
+      <c r="D21" s="31">
         <v>1340</v>
       </c>
       <c r="E21" s="13">
@@ -3895,17 +3946,17 @@
       <c r="I21" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J21" s="29"/>
+      <c r="J21" s="61"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="30"/>
+      <c r="A22" s="62"/>
       <c r="B22" s="1">
         <v>19</v>
       </c>
-      <c r="C22" s="47" t="s">
+      <c r="C22" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="D22" s="48">
+      <c r="D22" s="31">
         <v>1370</v>
       </c>
       <c r="E22" s="13">
@@ -3923,17 +3974,17 @@
       <c r="I22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J22" s="29"/>
+      <c r="J22" s="61"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="30"/>
+      <c r="A23" s="62"/>
       <c r="B23" s="1">
         <v>20</v>
       </c>
-      <c r="C23" s="47" t="s">
+      <c r="C23" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="D23" s="48">
+      <c r="D23" s="31">
         <v>1440</v>
       </c>
       <c r="E23" s="13">
@@ -3951,17 +4002,17 @@
       <c r="I23" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J23" s="29"/>
+      <c r="J23" s="61"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="30"/>
+      <c r="A24" s="62"/>
       <c r="B24" s="1">
         <v>21</v>
       </c>
-      <c r="C24" s="47" t="s">
+      <c r="C24" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="D24" s="48">
+      <c r="D24" s="31">
         <v>1260</v>
       </c>
       <c r="E24" s="13">
@@ -3979,17 +4030,17 @@
       <c r="I24" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J24" s="29"/>
+      <c r="J24" s="61"/>
     </row>
     <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="30"/>
+      <c r="A25" s="62"/>
       <c r="B25" s="1">
         <v>22</v>
       </c>
-      <c r="C25" s="47" t="s">
+      <c r="C25" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="48">
+      <c r="D25" s="31">
         <v>1210</v>
       </c>
       <c r="E25" s="13">
@@ -4007,17 +4058,17 @@
       <c r="I25" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J25" s="29"/>
+      <c r="J25" s="61"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="30"/>
+      <c r="A26" s="62"/>
       <c r="B26" s="1">
         <v>23</v>
       </c>
-      <c r="C26" s="47" t="s">
+      <c r="C26" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="D26" s="50">
+      <c r="D26" s="33">
         <v>1250</v>
       </c>
       <c r="E26" s="3">
@@ -4035,17 +4086,17 @@
       <c r="I26" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J26" s="29"/>
+      <c r="J26" s="61"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="30"/>
+      <c r="A27" s="62"/>
       <c r="B27" s="1">
         <v>24</v>
       </c>
-      <c r="C27" s="47" t="s">
+      <c r="C27" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="D27" s="48">
+      <c r="D27" s="31">
         <v>1240</v>
       </c>
       <c r="E27" s="13">
@@ -4063,17 +4114,17 @@
       <c r="I27" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J27" s="29"/>
+      <c r="J27" s="61"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="30"/>
+      <c r="A28" s="62"/>
       <c r="B28" s="1">
         <v>25</v>
       </c>
-      <c r="C28" s="47" t="s">
+      <c r="C28" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="50">
+      <c r="D28" s="33">
         <v>1200</v>
       </c>
       <c r="E28" s="3">
@@ -4091,17 +4142,17 @@
       <c r="I28" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J28" s="29"/>
+      <c r="J28" s="61"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="30"/>
+      <c r="A29" s="62"/>
       <c r="B29" s="1">
         <v>26</v>
       </c>
-      <c r="C29" s="47" t="s">
+      <c r="C29" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="D29" s="48">
+      <c r="D29" s="31">
         <v>1250</v>
       </c>
       <c r="E29" s="13">
@@ -4119,17 +4170,17 @@
       <c r="I29" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J29" s="29"/>
+      <c r="J29" s="61"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="30"/>
+      <c r="A30" s="62"/>
       <c r="B30" s="11">
         <v>27</v>
       </c>
-      <c r="C30" s="51" t="s">
+      <c r="C30" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="52">
+      <c r="D30" s="35">
         <v>1280</v>
       </c>
       <c r="E30" s="16">
@@ -4147,17 +4198,17 @@
       <c r="I30" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J30" s="29"/>
+      <c r="J30" s="61"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="30"/>
+      <c r="A31" s="62"/>
       <c r="B31" s="1">
         <v>28</v>
       </c>
-      <c r="C31" s="47" t="s">
+      <c r="C31" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="D31" s="48">
+      <c r="D31" s="31">
         <v>1430</v>
       </c>
       <c r="E31" s="13">
@@ -4175,17 +4226,17 @@
       <c r="I31" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J31" s="29"/>
+      <c r="J31" s="61"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="30"/>
+      <c r="A32" s="62"/>
       <c r="B32" s="18">
         <v>29</v>
       </c>
-      <c r="C32" s="45" t="s">
+      <c r="C32" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="53">
+      <c r="D32" s="36">
         <v>1330</v>
       </c>
       <c r="E32" s="20">
@@ -4203,31 +4254,31 @@
       <c r="I32" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="30"/>
-      <c r="B33" s="56" t="s">
-        <v>115</v>
-      </c>
-      <c r="C33" s="57"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="57"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="58"/>
-      <c r="J33" s="29"/>
-    </row>
-    <row r="34" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="30"/>
+      <c r="J32" s="61"/>
+    </row>
+    <row r="33" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="62"/>
+      <c r="B33" s="77" t="s">
+        <v>111</v>
+      </c>
+      <c r="C33" s="78"/>
+      <c r="D33" s="78"/>
+      <c r="E33" s="78"/>
+      <c r="F33" s="78"/>
+      <c r="G33" s="78"/>
+      <c r="H33" s="78"/>
+      <c r="I33" s="79"/>
+      <c r="J33" s="61"/>
+    </row>
+    <row r="34" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="62"/>
       <c r="B34" s="1">
         <v>30</v>
       </c>
-      <c r="C34" s="47" t="s">
+      <c r="C34" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="D34" s="48">
+      <c r="D34" s="31">
         <v>7430</v>
       </c>
       <c r="E34" s="13">
@@ -4245,52 +4296,52 @@
       <c r="I34" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="J34" s="29"/>
-    </row>
-    <row r="35" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="30"/>
-      <c r="B35" s="1">
+      <c r="J34" s="61"/>
+    </row>
+    <row r="35" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="62"/>
+      <c r="B35" s="40">
         <v>31</v>
       </c>
-      <c r="C35" s="47" t="s">
-        <v>101</v>
-      </c>
-      <c r="D35" s="48">
-        <v>7240</v>
-      </c>
-      <c r="E35" s="13">
-        <v>7790</v>
-      </c>
-      <c r="F35" s="4" t="s">
+      <c r="C35" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="D35" s="42">
+        <v>7390</v>
+      </c>
+      <c r="E35" s="43">
+        <v>7890</v>
+      </c>
+      <c r="F35" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="G35" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="H35" s="2" t="s">
+      <c r="H35" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="I35" s="5" t="s">
+      <c r="I35" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="J35" s="29"/>
-    </row>
-    <row r="36" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="30"/>
+      <c r="J35" s="61"/>
+    </row>
+    <row r="36" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="62"/>
       <c r="B36" s="1">
         <v>32</v>
       </c>
-      <c r="C36" s="47" t="s">
+      <c r="C36" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="D36" s="50">
+      <c r="D36" s="33">
         <v>4840</v>
       </c>
       <c r="E36" s="3">
         <v>5190</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>27</v>
@@ -4301,17 +4352,17 @@
       <c r="I36" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J36" s="29"/>
-    </row>
-    <row r="37" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="30"/>
+      <c r="J36" s="61"/>
+    </row>
+    <row r="37" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="62"/>
       <c r="B37" s="1">
         <v>33</v>
       </c>
-      <c r="C37" s="47" t="s">
+      <c r="C37" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="D37" s="48">
+      <c r="D37" s="31">
         <v>5600</v>
       </c>
       <c r="E37" s="13">
@@ -4329,17 +4380,17 @@
       <c r="I37" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="J37" s="29"/>
-    </row>
-    <row r="38" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="30"/>
+      <c r="J37" s="61"/>
+    </row>
+    <row r="38" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="62"/>
       <c r="B38" s="1">
         <v>34</v>
       </c>
-      <c r="C38" s="47" t="s">
+      <c r="C38" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="D38" s="48">
+      <c r="D38" s="31">
         <v>6500</v>
       </c>
       <c r="E38" s="13">
@@ -4357,17 +4408,17 @@
       <c r="I38" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="J38" s="29"/>
-    </row>
-    <row r="39" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="30"/>
+      <c r="J38" s="61"/>
+    </row>
+    <row r="39" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="62"/>
       <c r="B39" s="1">
         <v>35</v>
       </c>
-      <c r="C39" s="47" t="s">
+      <c r="C39" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="D39" s="48">
+      <c r="D39" s="31">
         <v>6570</v>
       </c>
       <c r="E39" s="13">
@@ -4385,73 +4436,73 @@
       <c r="I39" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="J39" s="29"/>
-    </row>
-    <row r="40" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="30"/>
-      <c r="B40" s="60">
+      <c r="J39" s="61"/>
+    </row>
+    <row r="40" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="62"/>
+      <c r="B40" s="47">
         <v>36</v>
       </c>
-      <c r="C40" s="61" t="s">
+      <c r="C40" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="D40" s="48">
+        <v>6890</v>
+      </c>
+      <c r="E40" s="49">
+        <v>7299</v>
+      </c>
+      <c r="F40" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="D40" s="62">
-        <v>7150</v>
-      </c>
-      <c r="E40" s="63">
-        <v>7599</v>
-      </c>
-      <c r="F40" s="28" t="s">
+      <c r="G40" s="51" t="s">
         <v>104</v>
       </c>
-      <c r="G40" s="64" t="s">
+      <c r="H40" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="H40" s="65" t="s">
+      <c r="I40" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="I40" s="66" t="s">
-        <v>107</v>
-      </c>
-      <c r="J40" s="29"/>
-    </row>
-    <row r="41" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="30"/>
+      <c r="J40" s="61"/>
+    </row>
+    <row r="41" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="62"/>
       <c r="B41" s="1">
         <v>37</v>
       </c>
-      <c r="C41" s="47" t="s">
-        <v>108</v>
-      </c>
-      <c r="D41" s="48">
+      <c r="C41" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D41" s="31">
         <v>3640</v>
       </c>
       <c r="E41" s="13">
         <v>3890</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>27</v>
       </c>
       <c r="H41" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I41" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="I41" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="J41" s="29"/>
-    </row>
-    <row r="42" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="30"/>
+      <c r="J41" s="61"/>
+    </row>
+    <row r="42" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="62"/>
       <c r="B42" s="1">
         <v>38</v>
       </c>
-      <c r="C42" s="47" t="s">
+      <c r="C42" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="D42" s="48">
+      <c r="D42" s="31">
         <v>6100</v>
       </c>
       <c r="E42" s="13">
@@ -4469,17 +4520,17 @@
       <c r="I42" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="J42" s="29"/>
-    </row>
-    <row r="43" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="30"/>
+      <c r="J42" s="61"/>
+    </row>
+    <row r="43" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="62"/>
       <c r="B43" s="1">
         <v>39</v>
       </c>
-      <c r="C43" s="47" t="s">
+      <c r="C43" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="D43" s="48">
+      <c r="D43" s="31">
         <v>7430</v>
       </c>
       <c r="E43" s="13">
@@ -4497,17 +4548,17 @@
       <c r="I43" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="J43" s="29"/>
-    </row>
-    <row r="44" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="30"/>
+      <c r="J43" s="61"/>
+    </row>
+    <row r="44" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="62"/>
       <c r="B44" s="1">
         <v>40</v>
       </c>
-      <c r="C44" s="47" t="s">
+      <c r="C44" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="D44" s="48">
+      <c r="D44" s="31">
         <v>9300</v>
       </c>
       <c r="E44" s="13">
@@ -4525,17 +4576,17 @@
       <c r="I44" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="J44" s="29"/>
-    </row>
-    <row r="45" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="30"/>
+      <c r="J44" s="61"/>
+    </row>
+    <row r="45" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="62"/>
       <c r="B45" s="1">
         <v>41</v>
       </c>
-      <c r="C45" s="47" t="s">
+      <c r="C45" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="D45" s="48">
+      <c r="D45" s="31">
         <v>10130</v>
       </c>
       <c r="E45" s="13">
@@ -4553,17 +4604,17 @@
       <c r="I45" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="J45" s="29"/>
-    </row>
-    <row r="46" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="30"/>
+      <c r="J45" s="61"/>
+    </row>
+    <row r="46" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="62"/>
       <c r="B46" s="1">
         <v>42</v>
       </c>
-      <c r="C46" s="47" t="s">
+      <c r="C46" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="D46" s="48">
+      <c r="D46" s="31">
         <v>7700</v>
       </c>
       <c r="E46" s="13">
@@ -4581,24 +4632,24 @@
       <c r="I46" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="J46" s="29"/>
-    </row>
-    <row r="47" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="30"/>
+      <c r="J46" s="61"/>
+    </row>
+    <row r="47" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="62"/>
       <c r="B47" s="1">
         <v>43</v>
       </c>
-      <c r="C47" s="47" t="s">
-        <v>111</v>
-      </c>
-      <c r="D47" s="48">
+      <c r="C47" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="D47" s="31">
         <v>7800</v>
       </c>
       <c r="E47" s="13">
         <v>8390</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>33</v>
@@ -4609,17 +4660,20 @@
       <c r="I47" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="J47" s="29"/>
-    </row>
-    <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="30"/>
+      <c r="J47" s="61"/>
+      <c r="N47" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="62"/>
       <c r="B48" s="1">
         <v>44</v>
       </c>
-      <c r="C48" s="47" t="s">
+      <c r="C48" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="D48" s="48">
+      <c r="D48" s="31">
         <v>7980</v>
       </c>
       <c r="E48" s="13">
@@ -4637,17 +4691,17 @@
       <c r="I48" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="J48" s="29"/>
+      <c r="J48" s="61"/>
     </row>
     <row r="49" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="30"/>
+      <c r="A49" s="62"/>
       <c r="B49" s="1">
         <v>45</v>
       </c>
-      <c r="C49" s="47" t="s">
+      <c r="C49" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="D49" s="48">
+      <c r="D49" s="31">
         <v>7980</v>
       </c>
       <c r="E49" s="13">
@@ -4659,23 +4713,23 @@
       <c r="G49" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H49" s="59" t="s">
+      <c r="H49" s="39" t="s">
         <v>94</v>
       </c>
       <c r="I49" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="J49" s="29"/>
+      <c r="J49" s="61"/>
     </row>
     <row r="50" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="30"/>
+      <c r="A50" s="62"/>
       <c r="B50" s="1">
         <v>46</v>
       </c>
-      <c r="C50" s="47" t="s">
+      <c r="C50" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="D50" s="48">
+      <c r="D50" s="31">
         <v>8490</v>
       </c>
       <c r="E50" s="13">
@@ -4693,17 +4747,17 @@
       <c r="I50" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="J50" s="29"/>
+      <c r="J50" s="61"/>
     </row>
     <row r="51" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="30"/>
+      <c r="A51" s="62"/>
       <c r="B51" s="1">
         <v>47</v>
       </c>
-      <c r="C51" s="54" t="s">
-        <v>112</v>
-      </c>
-      <c r="D51" s="55">
+      <c r="C51" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="D51" s="38">
         <v>9290</v>
       </c>
       <c r="E51" s="8">
@@ -4721,17 +4775,17 @@
       <c r="I51" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="J51" s="29"/>
+      <c r="J51" s="61"/>
     </row>
     <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="30"/>
+      <c r="A52" s="62"/>
       <c r="B52" s="1">
         <v>48</v>
       </c>
-      <c r="C52" s="47" t="s">
-        <v>113</v>
-      </c>
-      <c r="D52" s="48">
+      <c r="C52" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="D52" s="31">
         <v>10230</v>
       </c>
       <c r="E52" s="13">
@@ -4749,17 +4803,17 @@
       <c r="I52" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="J52" s="29"/>
+      <c r="J52" s="61"/>
     </row>
     <row r="53" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="30"/>
+      <c r="A53" s="62"/>
       <c r="B53" s="1">
         <v>49</v>
       </c>
-      <c r="C53" s="47" t="s">
-        <v>114</v>
-      </c>
-      <c r="D53" s="48">
+      <c r="C53" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="D53" s="31">
         <v>9290</v>
       </c>
       <c r="E53" s="13">
@@ -4777,33 +4831,45 @@
       <c r="I53" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="J53" s="29"/>
+      <c r="J53" s="61"/>
     </row>
     <row r="54" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="30"/>
-      <c r="B54" s="1">
+      <c r="A54" s="62"/>
+      <c r="B54" s="54">
         <v>50</v>
       </c>
-      <c r="C54" s="47" t="s">
-        <v>117</v>
-      </c>
-      <c r="D54" s="48"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="29"/>
+      <c r="C54" s="55" t="s">
+        <v>112</v>
+      </c>
+      <c r="D54" s="56">
+        <v>9050</v>
+      </c>
+      <c r="E54" s="57">
+        <v>9599</v>
+      </c>
+      <c r="F54" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="G54" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="H54" s="59" t="s">
+        <v>59</v>
+      </c>
+      <c r="I54" s="60" t="s">
+        <v>116</v>
+      </c>
+      <c r="J54" s="61"/>
     </row>
     <row r="55" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="30"/>
+      <c r="A55" s="62"/>
       <c r="B55" s="1">
         <v>51</v>
       </c>
-      <c r="C55" s="47" t="s">
+      <c r="C55" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="D55" s="48">
+      <c r="D55" s="31">
         <v>9580</v>
       </c>
       <c r="E55" s="13">
@@ -4821,61 +4887,61 @@
       <c r="I55" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="J55" s="29"/>
+      <c r="J55" s="61"/>
     </row>
     <row r="56" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="30"/>
+      <c r="A56" s="62"/>
       <c r="B56" s="1"/>
-      <c r="C56" s="47"/>
-      <c r="D56" s="48"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="31"/>
       <c r="E56" s="13"/>
       <c r="F56" s="4"/>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
       <c r="I56" s="5"/>
-      <c r="J56" s="29"/>
+      <c r="J56" s="61"/>
     </row>
     <row r="57" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="30"/>
+      <c r="A57" s="62"/>
       <c r="B57" s="1"/>
-      <c r="C57" s="47"/>
-      <c r="D57" s="48"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="31"/>
       <c r="E57" s="13"/>
       <c r="F57" s="4"/>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
       <c r="I57" s="5"/>
-      <c r="J57" s="29"/>
+      <c r="J57" s="61"/>
     </row>
     <row r="58" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="30"/>
-      <c r="B58" s="37" t="s">
+      <c r="A58" s="62"/>
+      <c r="B58" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="C58" s="38"/>
-      <c r="D58" s="39"/>
-      <c r="E58" s="40" t="s">
+      <c r="C58" s="70"/>
+      <c r="D58" s="71"/>
+      <c r="E58" s="72" t="s">
         <v>97</v>
       </c>
-      <c r="F58" s="41"/>
-      <c r="G58" s="42"/>
-      <c r="H58" s="43" t="s">
+      <c r="F58" s="73"/>
+      <c r="G58" s="74"/>
+      <c r="H58" s="75" t="s">
         <v>98</v>
       </c>
-      <c r="I58" s="44"/>
-      <c r="J58" s="29"/>
+      <c r="I58" s="76"/>
+      <c r="J58" s="61"/>
     </row>
     <row r="59" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="29"/>
-      <c r="B59" s="29"/>
-      <c r="C59" s="29"/>
-      <c r="D59" s="29"/>
-      <c r="E59" s="29"/>
-      <c r="F59" s="29"/>
-      <c r="G59" s="29"/>
-      <c r="H59" s="29"/>
-      <c r="I59" s="29"/>
-      <c r="J59" s="29"/>
+      <c r="A59" s="61"/>
+      <c r="B59" s="61"/>
+      <c r="C59" s="61"/>
+      <c r="D59" s="61"/>
+      <c r="E59" s="61"/>
+      <c r="F59" s="61"/>
+      <c r="G59" s="61"/>
+      <c r="H59" s="61"/>
+      <c r="I59" s="61"/>
+      <c r="J59" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/2022/Price List/Symphony Price List 01.04.2022.xlsx
+++ b/2022/Price List/Symphony Price List 01.04.2022.xlsx
@@ -3386,8 +3386,8 @@
   </sheetPr>
   <dimension ref="A1:N59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="L61" sqref="L61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
